--- a/biology/Botanique/Phelipanche/Phelipanche.xlsx
+++ b/biology/Botanique/Phelipanche/Phelipanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phelipanche est un genre de plantes à fleurs herbacées parasites, de la famille des Orobanchaceae. Phelipanche peut être considéré comme un synonyme d’Orobanche.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs sont pourvues de deux bractéoles latérales. Le calice est campanulé -cupuliforme, à quatre divisions inégales, rarement cinq, plus ou moins échancré supérieurement. La corolle est tubuleuse trigone, à deux lèvres, l'inférieure trilobée, étalée, la supérieure bilobée, porrigée. Les anthères sont glabres ou pubescentes, à placentas rapprochés par paires et confluents au sommet. Le fruit est une capsule à valves à la fin écartées au sommet par la déhiscence, qui rompt la base du style[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont pourvues de deux bractéoles latérales. Le calice est campanulé -cupuliforme, à quatre divisions inégales, rarement cinq, plus ou moins échancré supérieurement. La corolle est tubuleuse trigone, à deux lèvres, l'inférieure trilobée, étalée, la supérieure bilobée, porrigée. Les anthères sont glabres ou pubescentes, à placentas rapprochés par paires et confluents au sommet. Le fruit est une capsule à valves à la fin écartées au sommet par la déhiscence, qui rompt la base du style.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est représenté en Afrique, en Amérique, en Asie et en Europe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est représenté en Afrique, en Amérique, en Asie et en Europe.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une seule espèce de Phelipanche est évaluée par l'Union internationale pour la conservation de la nature : Phelipanche astragali, classée « en danger » (EN)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une seule espèce de Phelipanche est évaluée par l'Union internationale pour la conservation de la nature : Phelipanche astragali, classée « en danger » (EN).
 </t>
         </is>
       </c>
@@ -604,17 +622,89 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit et nommé par le botaniste français Auguste Nicolas Pomel en 1874, dans son ouvrage Nouveaux Matériaux pour la Flore Atlantique, vol. 1, Paris (lire en ligne), p. 102[5].
-Selon Plants of the World online (POWO)                (15 avril 2021)[5] et Tropicos                                           (15 avril 2021)[6], Phelipanche n'est pas un genre accepté, il est synonyme d’Orobanche.
-Synonymes
-Selon Catalogue of Life                                   (15 avril 2021)[7], Phelipanche est un nom correct et a pour synonymes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit et nommé par le botaniste français Auguste Nicolas Pomel en 1874, dans son ouvrage Nouveaux Matériaux pour la Flore Atlantique, vol. 1, Paris (lire en ligne), p. 102.
+Selon Plants of the World online (POWO)                (15 avril 2021) et Tropicos                                           (15 avril 2021), Phelipanche n'est pas un genre accepté, il est synonyme d’Orobanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phelipanche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phelipanche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 avril 2021), Phelipanche est un nom correct et a pour synonymes :
 Kopsia Dumort., 1822
 Orobanche sect. Trionychon Wallr., 1822
 Chorobanche C.Presl, 1845
-Liste des espèces
-Selon Catalogue of Life                                   (15 avril 2021)[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Phelipanche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phelipanche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 avril 2021) :
 Phelipanche aedoi Carlón, G.Gómez, M.Laínz, Moreno Mor., Ó.Sánchez &amp; Schneew.
 Phelipanche aegyptiaca (Pers.) Pomel
 Phelipanche androssovii (Novopokr.) Soják
